--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a1_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a1_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C3">
-        <v>0.4978991596638656</v>
+        <v>0.5042194092827004</v>
       </c>
       <c r="D3">
-        <v>0.5584905660377358</v>
+        <v>0.5808823529411765</v>
       </c>
       <c r="E3">
-        <v>0.5031185031185031</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="F3">
-        <v>0.5522388059701493</v>
+        <v>0.5574912891986062</v>
       </c>
       <c r="G3">
-        <v>0.5020491803278688</v>
+        <v>0.5030674846625767</v>
       </c>
       <c r="H3">
-        <v>0.492</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5681818181818182</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="C4">
-        <v>0.48582995951417</v>
+        <v>0.4813278008298755</v>
       </c>
       <c r="D4">
-        <v>0.573170731707317</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="E4">
-        <v>0.4817518248175183</v>
+        <v>0.4643916913946587</v>
       </c>
       <c r="F4">
-        <v>0.5657142857142857</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="G4">
-        <v>0.4827089337175792</v>
+        <v>0.4807121661721068</v>
       </c>
       <c r="H4">
-        <v>0.486</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,22 +504,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5648148148148148</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C5">
-        <v>0.4866412213740458</v>
+        <v>0.4580896686159844</v>
       </c>
       <c r="D5">
-        <v>0.574468085106383</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="E5">
-        <v>0.4922480620155039</v>
+        <v>0.4674479166666667</v>
       </c>
       <c r="F5">
-        <v>0.5606060606060606</v>
+        <v>0.6416666666666667</v>
       </c>
       <c r="G5">
-        <v>0.4857512953367876</v>
+        <v>0.4878361075544174</v>
       </c>
       <c r="H5">
         <v>0.488</v>
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C6">
-        <v>0.4818840579710145</v>
+        <v>0.4625228519195612</v>
       </c>
       <c r="D6">
-        <v>0.5142857142857142</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="E6">
-        <v>0.4974358974358974</v>
+        <v>0.4779874213836478</v>
       </c>
       <c r="F6">
-        <v>0.5217391304347826</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="G6">
-        <v>0.49</v>
+        <v>0.4932515337423313</v>
       </c>
       <c r="H6">
-        <v>0.482</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,22 +556,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.616</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="C7">
-        <v>0.4816053511705686</v>
+        <v>0.4534686971235194</v>
       </c>
       <c r="D7">
-        <v>0.5728155339805825</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="E7">
-        <v>0.51125</v>
+        <v>0.4860759493670886</v>
       </c>
       <c r="F7">
-        <v>0.4952380952380953</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="G7">
-        <v>0.4914634146341463</v>
+        <v>0.5024509803921569</v>
       </c>
       <c r="H7">
         <v>0.482</v>
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.556390977443609</v>
+        <v>0.6194029850746269</v>
       </c>
       <c r="C8">
-        <v>0.4699537750385208</v>
+        <v>0.453416149068323</v>
       </c>
       <c r="D8">
-        <v>0.5566037735849056</v>
+        <v>0.628099173553719</v>
       </c>
       <c r="E8">
-        <v>0.5073529411764706</v>
+        <v>0.4955974842767296</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.5794392523364486</v>
       </c>
       <c r="G8">
-        <v>0.4969400244798042</v>
+        <v>0.5030599755201959</v>
       </c>
       <c r="H8">
-        <v>0.468</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5538461538461539</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0.4855907780979827</v>
+        <v>0.4548148148148148</v>
       </c>
       <c r="D9">
-        <v>0.5784313725490197</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="E9">
-        <v>0.5074257425742574</v>
+        <v>0.4848101265822785</v>
       </c>
       <c r="F9">
-        <v>0.5154639175257731</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="G9">
-        <v>0.4901719901719901</v>
+        <v>0.4975124378109453</v>
       </c>
       <c r="H9">
-        <v>0.472</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5673758865248227</v>
+        <v>0.5851851851851851</v>
       </c>
       <c r="C10">
-        <v>0.4839142091152815</v>
+        <v>0.4708276797829037</v>
       </c>
       <c r="D10">
-        <v>0.5192307692307693</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="E10">
-        <v>0.4993773349937733</v>
+        <v>0.4943538268506901</v>
       </c>
       <c r="F10">
-        <v>0.5480769230769231</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="G10">
-        <v>0.4870210135970334</v>
+        <v>0.5061425061425061</v>
       </c>
       <c r="H10">
-        <v>0.472</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6402877697841727</v>
+        <v>0.6357142857142857</v>
       </c>
       <c r="C11">
-        <v>0.4766118836915297</v>
+        <v>0.4723294723294723</v>
       </c>
       <c r="D11">
-        <v>0.5673076923076923</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="E11">
-        <v>0.5086848635235732</v>
+        <v>0.5012531328320802</v>
       </c>
       <c r="F11">
-        <v>0.5833333333333334</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G11">
-        <v>0.4838709677419355</v>
+        <v>0.5072992700729927</v>
       </c>
       <c r="H11">
-        <v>0.478</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6620689655172414</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="C12">
-        <v>0.4657210401891253</v>
+        <v>0.4642424242424242</v>
       </c>
       <c r="D12">
-        <v>0.5789473684210527</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="E12">
-        <v>0.5012376237623762</v>
+        <v>0.4987437185929648</v>
       </c>
       <c r="F12">
-        <v>0.5607476635514018</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="G12">
-        <v>0.4875930521091811</v>
+        <v>0.5127582017010935</v>
       </c>
       <c r="H12">
-        <v>0.478</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,22 +712,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6417910447761194</v>
+        <v>0.5661764705882353</v>
       </c>
       <c r="C13">
-        <v>0.4630044843049327</v>
+        <v>0.4653014789533561</v>
       </c>
       <c r="D13">
-        <v>0.5619047619047619</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="E13">
-        <v>0.4963054187192118</v>
+        <v>0.4880803011292346</v>
       </c>
       <c r="F13">
-        <v>0.58</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="G13">
-        <v>0.486284289276808</v>
+        <v>0.5086206896551724</v>
       </c>
       <c r="H13">
         <v>0.484</v>
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6612903225806451</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="C14">
-        <v>0.4723991507430998</v>
+        <v>0.4724324324324324</v>
       </c>
       <c r="D14">
-        <v>0.5588235294117647</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="E14">
-        <v>0.4924050632911393</v>
+        <v>0.4955863808322825</v>
       </c>
       <c r="F14">
-        <v>0.6442307692307693</v>
+        <v>0.57</v>
       </c>
       <c r="G14">
-        <v>0.4886934673366834</v>
+        <v>0.5136138613861386</v>
       </c>
       <c r="H14">
-        <v>0.486</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6307692307692307</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="C15">
-        <v>0.4737363726461843</v>
+        <v>0.4717741935483871</v>
       </c>
       <c r="D15">
-        <v>0.5086206896551724</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="E15">
-        <v>0.4968710888610763</v>
+        <v>0.5031605562579013</v>
       </c>
       <c r="F15">
-        <v>0.5963302752293578</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="G15">
-        <v>0.4924812030075188</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6440677966101694</v>
+        <v>0.59375</v>
       </c>
       <c r="C16">
-        <v>0.4759206798866856</v>
+        <v>0.4736328125</v>
       </c>
       <c r="D16">
-        <v>0.5181818181818182</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="E16">
-        <v>0.4943960149439601</v>
+        <v>0.4936224489795918</v>
       </c>
       <c r="F16">
-        <v>0.5494505494505495</v>
+        <v>0.45</v>
       </c>
       <c r="G16">
-        <v>0.504914004914005</v>
+        <v>0.4987654320987654</v>
       </c>
       <c r="H16">
-        <v>0.466</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6333333333333333</v>
+        <v>0.5906040268456376</v>
       </c>
       <c r="C17">
-        <v>0.4808206958073149</v>
+        <v>0.4783808647654094</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E17">
-        <v>0.4906367041198502</v>
+        <v>0.5087939698492462</v>
       </c>
       <c r="F17">
-        <v>0.6144578313253012</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="G17">
-        <v>0.4975669099756691</v>
+        <v>0.4950124688279302</v>
       </c>
       <c r="H17">
-        <v>0.488</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5625</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C18">
-        <v>0.4847972972972973</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="D18">
-        <v>0.5294117647058824</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="E18">
-        <v>0.4951338199513382</v>
+        <v>0.513715710723192</v>
       </c>
       <c r="F18">
-        <v>0.5340909090909091</v>
+        <v>0.53</v>
       </c>
       <c r="G18">
-        <v>0.4976019184652278</v>
+        <v>0.4911616161616162</v>
       </c>
       <c r="H18">
-        <v>0.476</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5227272727272727</v>
+        <v>0.5547445255474452</v>
       </c>
       <c r="C19">
-        <v>0.4847986852917009</v>
+        <v>0.4865800865800866</v>
       </c>
       <c r="D19">
-        <v>0.5445544554455446</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="E19">
-        <v>0.4801488833746898</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="F19">
-        <v>0.573170731707317</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G19">
-        <v>0.5134146341463415</v>
+        <v>0.4806007509386733</v>
       </c>
       <c r="H19">
-        <v>0.466</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5725190839694656</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C20">
-        <v>0.4889763779527559</v>
+        <v>0.4898456539398863</v>
       </c>
       <c r="D20">
-        <v>0.6178861788617886</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="E20">
-        <v>0.4756554307116105</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="F20">
-        <v>0.5462962962962963</v>
+        <v>0.55</v>
       </c>
       <c r="G20">
-        <v>0.5036585365853659</v>
+        <v>0.4834355828220859</v>
       </c>
       <c r="H20">
-        <v>0.484</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6115702479338843</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>0.4818731117824773</v>
+        <v>0.487993803253292</v>
       </c>
       <c r="D21">
-        <v>0.5892857142857143</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="E21">
-        <v>0.4658227848101266</v>
+        <v>0.5136138613861386</v>
       </c>
       <c r="F21">
-        <v>0.5106382978723404</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="G21">
-        <v>0.5024813895781638</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="H21">
-        <v>0.508</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5625</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="C22">
-        <v>0.4809489575844716</v>
+        <v>0.4810690423162584</v>
       </c>
       <c r="D22">
-        <v>0.6261682242990654</v>
+        <v>0.51</v>
       </c>
       <c r="E22">
-        <v>0.4763092269326683</v>
+        <v>0.5043050430504306</v>
       </c>
       <c r="F22">
-        <v>0.5576923076923077</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="G22">
-        <v>0.5036585365853659</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="H22">
-        <v>0.508</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5746268656716418</v>
+        <v>0.6335877862595419</v>
       </c>
       <c r="C23">
-        <v>0.486130374479889</v>
+        <v>0.4808238636363636</v>
       </c>
       <c r="D23">
-        <v>0.6037735849056604</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="E23">
-        <v>0.4839901477832512</v>
+        <v>0.503052503052503</v>
       </c>
       <c r="F23">
-        <v>0.5463917525773195</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="G23">
-        <v>0.4981640146878825</v>
+        <v>0.4778869778869779</v>
       </c>
       <c r="H23">
-        <v>0.522</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5887096774193549</v>
+        <v>0.6240601503759399</v>
       </c>
       <c r="C24">
-        <v>0.4801613987895091</v>
+        <v>0.4875690607734807</v>
       </c>
       <c r="D24">
-        <v>0.5111111111111111</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="E24">
-        <v>0.4919653893695921</v>
+        <v>0.5049261083743842</v>
       </c>
       <c r="F24">
-        <v>0.4886363636363636</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="G24">
-        <v>0.4963414634146341</v>
+        <v>0.4853300733496332</v>
       </c>
       <c r="H24">
-        <v>0.526</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5630252100840336</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="C25">
-        <v>0.4790996784565916</v>
+        <v>0.4867021276595745</v>
       </c>
       <c r="D25">
-        <v>0.6161616161616161</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="E25">
-        <v>0.5060679611650486</v>
+        <v>0.4963235294117647</v>
       </c>
       <c r="F25">
-        <v>0.4285714285714285</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="G25">
-        <v>0.4945717732207479</v>
+        <v>0.4896467722289891</v>
       </c>
       <c r="H25">
-        <v>0.53</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5633802816901409</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="C26">
-        <v>0.4843076923076923</v>
+        <v>0.4916452442159383</v>
       </c>
       <c r="D26">
-        <v>0.5865384615384616</v>
+        <v>0.55</v>
       </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>0.5074441687344913</v>
       </c>
       <c r="F26">
-        <v>0.4528301886792453</v>
+        <v>0.53125</v>
       </c>
       <c r="G26">
-        <v>0.4891826923076923</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="H26">
-        <v>0.528</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5514705882352942</v>
+        <v>0.5944055944055944</v>
       </c>
       <c r="C27">
-        <v>0.4851244687310261</v>
+        <v>0.492221530802738</v>
       </c>
       <c r="D27">
-        <v>0.5287356321839081</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="E27">
-        <v>0.5049382716049383</v>
+        <v>0.5042839657282742</v>
       </c>
       <c r="F27">
-        <v>0.524390243902439</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="G27">
-        <v>0.4777777777777778</v>
+        <v>0.4854014598540146</v>
       </c>
       <c r="H27">
-        <v>0.534</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5681818181818182</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C28">
-        <v>0.4883040935672515</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="D28">
-        <v>0.4901960784313725</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E28">
-        <v>0.5048899755501223</v>
+        <v>0.503052503052503</v>
       </c>
       <c r="F28">
-        <v>0.5510204081632653</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="G28">
-        <v>0.4752116082224909</v>
+        <v>0.4793187347931874</v>
       </c>
       <c r="H28">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5798319327731093</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C29">
-        <v>0.4906196702671973</v>
+        <v>0.4915844457341846</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E29">
-        <v>0.4993773349937733</v>
+        <v>0.5085574572127139</v>
       </c>
       <c r="F29">
-        <v>0.5934065934065934</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="G29">
-        <v>0.4709517923362175</v>
+        <v>0.4801920768307323</v>
       </c>
       <c r="H29">
-        <v>0.516</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.556390977443609</v>
+        <v>0.6343283582089553</v>
       </c>
       <c r="C30">
-        <v>0.4917943107221007</v>
+        <v>0.4933110367892977</v>
       </c>
       <c r="D30">
-        <v>0.4424778761061947</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="E30">
-        <v>0.4962779156327544</v>
+        <v>0.4975609756097561</v>
       </c>
       <c r="F30">
-        <v>0.6078431372549019</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="G30">
-        <v>0.4797047970479705</v>
+        <v>0.4831730769230769</v>
       </c>
       <c r="H30">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5579710144927537</v>
+        <v>0.6043165467625899</v>
       </c>
       <c r="C31">
-        <v>0.4924812030075188</v>
+        <v>0.4934782608695652</v>
       </c>
       <c r="D31">
-        <v>0.4433962264150944</v>
+        <v>0.51</v>
       </c>
       <c r="E31">
-        <v>0.4955863808322825</v>
+        <v>0.4981458590852905</v>
       </c>
       <c r="F31">
-        <v>0.5698924731182796</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G31">
-        <v>0.4776119402985075</v>
+        <v>0.4793187347931874</v>
       </c>
       <c r="H31">
-        <v>0.496</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6417910447761194</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C32">
-        <v>0.4932221063607925</v>
+        <v>0.4997358689910196</v>
       </c>
       <c r="D32">
-        <v>0.5445544554455446</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="E32">
-        <v>0.4925742574257426</v>
+        <v>0.493184634448575</v>
       </c>
       <c r="F32">
-        <v>0.5533980582524272</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="G32">
-        <v>0.4805352798053528</v>
+        <v>0.4816625916870416</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6143790849673203</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="C33">
-        <v>0.4889447236180904</v>
+        <v>0.4997424008243174</v>
       </c>
       <c r="D33">
-        <v>0.5567010309278351</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="E33">
-        <v>0.4850299401197605</v>
+        <v>0.4911616161616162</v>
       </c>
       <c r="F33">
-        <v>0.5638297872340425</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="G33">
-        <v>0.4784172661870504</v>
+        <v>0.4944099378881988</v>
       </c>
       <c r="H33">
-        <v>0.514</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.644927536231884</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C34">
-        <v>0.4903225806451613</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <v>0.5454545454545454</v>
+        <v>0.4553571428571428</v>
       </c>
       <c r="E34">
-        <v>0.480440097799511</v>
+        <v>0.4925742574257426</v>
       </c>
       <c r="F34">
-        <v>0.5402298850574713</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="G34">
-        <v>0.48721071863581</v>
+        <v>0.5</v>
       </c>
       <c r="H34">
-        <v>0.482</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5942028985507246</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C35">
-        <v>0.4884504331087584</v>
+        <v>0.4973339796412991</v>
       </c>
       <c r="D35">
-        <v>0.514018691588785</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E35">
-        <v>0.4820322180916977</v>
+        <v>0.48875</v>
       </c>
       <c r="F35">
-        <v>0.5242718446601942</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G35">
-        <v>0.4839108910891089</v>
+        <v>0.4987623762376238</v>
       </c>
       <c r="H35">
-        <v>0.494</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.589041095890411</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="C36">
-        <v>0.4939138576779026</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>0.5803571428571429</v>
+        <v>0.6126126126126126</v>
       </c>
       <c r="E36">
-        <v>0.4850746268656717</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="F36">
-        <v>0.5523809523809524</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G36">
-        <v>0.4888888888888889</v>
+        <v>0.495</v>
       </c>
       <c r="H36">
-        <v>0.486</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6408450704225352</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="C37">
-        <v>0.4944852941176471</v>
+        <v>0.496978149697815</v>
       </c>
       <c r="D37">
-        <v>0.5670103092783505</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="E37">
-        <v>0.4806491885143571</v>
+        <v>0.4790343074968234</v>
       </c>
       <c r="F37">
-        <v>0.5600000000000001</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="G37">
-        <v>0.4746600741656366</v>
+        <v>0.4937027707808564</v>
       </c>
       <c r="H37">
-        <v>0.512</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6590909090909091</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="C38">
-        <v>0.4923835125448029</v>
+        <v>0.4981801637852593</v>
       </c>
       <c r="D38">
-        <v>0.5192307692307693</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E38">
-        <v>0.4790123456790124</v>
+        <v>0.4796954314720812</v>
       </c>
       <c r="F38">
-        <v>0.5154639175257731</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="G38">
-        <v>0.4715346534653465</v>
+        <v>0.4968553459119497</v>
       </c>
       <c r="H38">
-        <v>0.516</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6507936507936508</v>
+        <v>0.5634920634920635</v>
       </c>
       <c r="C39">
-        <v>0.4908774978279757</v>
+        <v>0.4995598591549296</v>
       </c>
       <c r="D39">
-        <v>0.5132743362831859</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E39">
-        <v>0.4839901477832512</v>
+        <v>0.474009900990099</v>
       </c>
       <c r="F39">
-        <v>0.4731182795698925</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="G39">
-        <v>0.4695121951219512</v>
+        <v>0.4926289926289926</v>
       </c>
       <c r="H39">
-        <v>0.512</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6230769230769231</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="C40">
-        <v>0.4928027095681626</v>
+        <v>0.4978540772532189</v>
       </c>
       <c r="D40">
-        <v>0.5333333333333333</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="E40">
-        <v>0.4875930521091811</v>
+        <v>0.4850746268656717</v>
       </c>
       <c r="F40">
-        <v>0.4823529411764706</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="G40">
-        <v>0.4782082324455206</v>
+        <v>0.4896214896214896</v>
       </c>
       <c r="H40">
-        <v>0.496</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6176470588235294</v>
+        <v>0.5367647058823529</v>
       </c>
       <c r="C41">
-        <v>0.4962655601659751</v>
+        <v>0.4985287936107608</v>
       </c>
       <c r="D41">
-        <v>0.5132743362831859</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="E41">
-        <v>0.4906832298136646</v>
+        <v>0.4894932014833127</v>
       </c>
       <c r="F41">
-        <v>0.4565217391304348</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="G41">
-        <v>0.4715151515151515</v>
+        <v>0.4822954822954823</v>
       </c>
       <c r="H41">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6390977443609023</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C42">
-        <v>0.4961397805770012</v>
+        <v>0.5004125412541254</v>
       </c>
       <c r="D42">
-        <v>0.4956521739130435</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="E42">
-        <v>0.4925</v>
+        <v>0.4943960149439601</v>
       </c>
       <c r="F42">
-        <v>0.4183673469387755</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="G42">
-        <v>0.4750304506699147</v>
+        <v>0.4863523573200992</v>
       </c>
       <c r="H42">
-        <v>0.486</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6190476190476191</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="C43">
-        <v>0.4964314036478985</v>
+        <v>0.499198717948718</v>
       </c>
       <c r="D43">
-        <v>0.5420560747663551</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="E43">
-        <v>0.486284289276808</v>
+        <v>0.4950617283950617</v>
       </c>
       <c r="F43">
-        <v>0.4222222222222222</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="G43">
-        <v>0.4792682926829268</v>
+        <v>0.4787363304981774</v>
       </c>
       <c r="H43">
-        <v>0.482</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5691056910569106</v>
+        <v>0.616</v>
       </c>
       <c r="C44">
-        <v>0.4980635166537568</v>
+        <v>0.4962701217118178</v>
       </c>
       <c r="D44">
-        <v>0.5631067961165048</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="E44">
-        <v>0.4838709677419355</v>
+        <v>0.49813200498132</v>
       </c>
       <c r="F44">
-        <v>0.5113636363636364</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="G44">
-        <v>0.4750911300121506</v>
+        <v>0.4742014742014742</v>
       </c>
       <c r="H44">
-        <v>0.48</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6140350877192983</v>
+        <v>0.6015037593984962</v>
       </c>
       <c r="C45">
-        <v>0.5022779043280182</v>
+        <v>0.494988434849653</v>
       </c>
       <c r="D45">
-        <v>0.5247524752475248</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="E45">
-        <v>0.4770186335403727</v>
+        <v>0.4919053549190536</v>
       </c>
       <c r="F45">
-        <v>0.4893617021276596</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="G45">
-        <v>0.4652862362971986</v>
+        <v>0.4736196319018405</v>
       </c>
       <c r="H45">
-        <v>0.49</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5833333333333334</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="C46">
-        <v>0.50037147102526</v>
+        <v>0.4948727687048994</v>
       </c>
       <c r="D46">
-        <v>0.4807692307692308</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="E46">
-        <v>0.4731585518102372</v>
+        <v>0.4836683417085427</v>
       </c>
       <c r="F46">
-        <v>0.5490196078431373</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G46">
-        <v>0.4637146371463715</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="H46">
-        <v>0.494</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6343283582089553</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="C47">
-        <v>0.5003660322108345</v>
+        <v>0.4964512514008218</v>
       </c>
       <c r="D47">
-        <v>0.5192307692307693</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="E47">
-        <v>0.471023427866831</v>
+        <v>0.4869888475836431</v>
       </c>
       <c r="F47">
-        <v>0.5728155339805825</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="G47">
-        <v>0.4619164619164619</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H47">
-        <v>0.486</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.626984126984127</v>
+        <v>0.5984848484848485</v>
       </c>
       <c r="C48">
-        <v>0.4971223021582734</v>
+        <v>0.4992700729927007</v>
       </c>
       <c r="D48">
-        <v>0.5520833333333334</v>
+        <v>0.625</v>
       </c>
       <c r="E48">
-        <v>0.4630541871921182</v>
+        <v>0.4906832298136646</v>
       </c>
       <c r="F48">
-        <v>0.5943396226415094</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="G48">
-        <v>0.4620098039215687</v>
+        <v>0.468557336621455</v>
       </c>
       <c r="H48">
-        <v>0.49</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6416666666666667</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="C49">
-        <v>0.4968376669009136</v>
+        <v>0.4992877492877493</v>
       </c>
       <c r="D49">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="E49">
-        <v>0.4658536585365854</v>
+        <v>0.4870848708487085</v>
       </c>
       <c r="F49">
-        <v>0.6039603960396039</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G49">
-        <v>0.4563345633456334</v>
+        <v>0.4685230024213075</v>
       </c>
       <c r="H49">
-        <v>0.496</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6050420168067226</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C50">
-        <v>0.4975928473177442</v>
+        <v>0.4992997198879552</v>
       </c>
       <c r="D50">
-        <v>0.57</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="E50">
-        <v>0.4755501222493888</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="F50">
-        <v>0.5280898876404494</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="G50">
-        <v>0.4578754578754579</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="H50">
-        <v>0.488</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6446280991735537</v>
+        <v>0.5912408759124088</v>
       </c>
       <c r="C51">
-        <v>0.4976351351351351</v>
+        <v>0.4948204419889503</v>
       </c>
       <c r="D51">
-        <v>0.5102040816326531</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="E51">
-        <v>0.4673242909987669</v>
+        <v>0.4957055214723927</v>
       </c>
       <c r="F51">
-        <v>0.4666666666666667</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="G51">
-        <v>0.4678007290400972</v>
+        <v>0.4758961681087763</v>
       </c>
       <c r="H51">
-        <v>0.48</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5950413223140496</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C52">
-        <v>0.4940357852882704</v>
+        <v>0.4978003384094755</v>
       </c>
       <c r="D52">
-        <v>0.5849056603773585</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E52">
-        <v>0.4761321909424724</v>
+        <v>0.5049019607843137</v>
       </c>
       <c r="F52">
-        <v>0.5463917525773195</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="G52">
-        <v>0.4703030303030303</v>
+        <v>0.4797047970479705</v>
       </c>
       <c r="H52">
-        <v>0.48</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5725190839694656</v>
+        <v>0.4748201438848921</v>
       </c>
       <c r="C53">
-        <v>0.498371335504886</v>
+        <v>0.5028342780926975</v>
       </c>
       <c r="D53">
-        <v>0.57</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="E53">
-        <v>0.4728395061728395</v>
+        <v>0.5043156596794082</v>
       </c>
       <c r="F53">
-        <v>0.5164835164835165</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G53">
-        <v>0.4671532846715328</v>
+        <v>0.4738805970149254</v>
       </c>
       <c r="H53">
-        <v>0.478</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5967741935483871</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="C54">
-        <v>0.4982320797171327</v>
+        <v>0.5037569421757595</v>
       </c>
       <c r="D54">
-        <v>0.4587155963302753</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="E54">
-        <v>0.4851851851851852</v>
+        <v>0.5043263288009888</v>
       </c>
       <c r="F54">
-        <v>0.5473684210526316</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G54">
-        <v>0.4634146341463415</v>
+        <v>0.4667487684729064</v>
       </c>
       <c r="H54">
-        <v>0.488</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5882352941176471</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="C55">
-        <v>0.4963756697132052</v>
+        <v>0.4991943280696101</v>
       </c>
       <c r="D55">
-        <v>0.5042735042735043</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="E55">
-        <v>0.4956413449564134</v>
+        <v>0.5018495684340321</v>
       </c>
       <c r="F55">
-        <v>0.52</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="G55">
-        <v>0.4634146341463415</v>
+        <v>0.4764267990074442</v>
       </c>
       <c r="H55">
-        <v>0.482</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5757575757575758</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C56">
-        <v>0.4961143922909543</v>
+        <v>0.497941083306937</v>
       </c>
       <c r="D56">
-        <v>0.5631067961165048</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E56">
-        <v>0.4918238993710692</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="F56">
-        <v>0.4842105263157895</v>
+        <v>0.5784313725490197</v>
       </c>
       <c r="G56">
-        <v>0.4575645756457565</v>
+        <v>0.462111801242236</v>
       </c>
       <c r="H56">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6048387096774194</v>
+        <v>0.539568345323741</v>
       </c>
       <c r="C57">
-        <v>0.4966340269277846</v>
+        <v>0.4989099968857054</v>
       </c>
       <c r="D57">
-        <v>0.6041666666666666</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E57">
-        <v>0.4888059701492538</v>
+        <v>0.4950617283950617</v>
       </c>
       <c r="F57">
-        <v>0.53125</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G57">
-        <v>0.4593596059113301</v>
+        <v>0.4585908529048208</v>
       </c>
       <c r="H57">
-        <v>0.488</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.632</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C58">
-        <v>0.4962451186542505</v>
+        <v>0.4998472349526428</v>
       </c>
       <c r="D58">
-        <v>0.5754716981132075</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E58">
-        <v>0.4796044499381953</v>
+        <v>0.4944920440636475</v>
       </c>
       <c r="F58">
-        <v>0.5523809523809524</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="G58">
-        <v>0.4463625154130703</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6379310344827587</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C59">
-        <v>0.4951284322409212</v>
+        <v>0.4995502248875562</v>
       </c>
       <c r="D59">
-        <v>0.5350877192982456</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="E59">
-        <v>0.484548825710754</v>
+        <v>0.4871165644171779</v>
       </c>
       <c r="F59">
-        <v>0.5918367346938775</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="G59">
-        <v>0.4426633785450061</v>
+        <v>0.4723926380368098</v>
       </c>
       <c r="H59">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5806451612903226</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="C60">
-        <v>0.4960812772133527</v>
+        <v>0.4985242030696576</v>
       </c>
       <c r="D60">
-        <v>0.5631067961165048</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="E60">
-        <v>0.4981226533166458</v>
+        <v>0.4919454770755886</v>
       </c>
       <c r="F60">
-        <v>0.5480769230769231</v>
+        <v>0.6039603960396039</v>
       </c>
       <c r="G60">
-        <v>0.446078431372549</v>
+        <v>0.4828009828009828</v>
       </c>
       <c r="H60">
-        <v>0.504</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5769230769230769</v>
+        <v>0.5615384615384615</v>
       </c>
       <c r="C61">
-        <v>0.49671146697169</v>
+        <v>0.4978191334690317</v>
       </c>
       <c r="D61">
-        <v>0.5267857142857143</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="E61">
-        <v>0.4956843403205919</v>
+        <v>0.4857496902106567</v>
       </c>
       <c r="F61">
-        <v>0.4678899082568808</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="G61">
-        <v>0.4403444034440344</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H61">
-        <v>0.506</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5588235294117647</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="C62">
-        <v>0.4976049591434207</v>
+        <v>0.4978553045467544</v>
       </c>
       <c r="D62">
-        <v>0.6019417475728155</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="E62">
-        <v>0.4913366336633663</v>
+        <v>0.4863523573200992</v>
       </c>
       <c r="F62">
-        <v>0.494949494949495</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="G62">
-        <v>0.4361179361179361</v>
+        <v>0.488257107540173</v>
       </c>
       <c r="H62">
-        <v>0.516</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6183206106870229</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="C63">
-        <v>0.4986087924318308</v>
+        <v>0.496056338028169</v>
       </c>
       <c r="D63">
-        <v>0.5360824742268041</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E63">
-        <v>0.4870530209617756</v>
+        <v>0.4894932014833127</v>
       </c>
       <c r="F63">
-        <v>0.5652173913043478</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="G63">
-        <v>0.431013431013431</v>
+        <v>0.4956843403205919</v>
       </c>
       <c r="H63">
-        <v>0.522</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6102941176470589</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C64">
-        <v>0.4956140350877193</v>
+        <v>0.4966740576496674</v>
       </c>
       <c r="D64">
-        <v>0.5360824742268041</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E64">
-        <v>0.4938118811881188</v>
+        <v>0.4925742574257426</v>
       </c>
       <c r="F64">
-        <v>0.5319148936170213</v>
+        <v>0.4375</v>
       </c>
       <c r="G64">
-        <v>0.4317343173431734</v>
+        <v>0.5006180469715699</v>
       </c>
       <c r="H64">
-        <v>0.508</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6296296296296297</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C65">
-        <v>0.4959371614301192</v>
+        <v>0.4967195188627666</v>
       </c>
       <c r="D65">
-        <v>0.64</v>
+        <v>0.5773195876288659</v>
       </c>
       <c r="E65">
-        <v>0.4968866749688667</v>
+        <v>0.4834761321909425</v>
       </c>
       <c r="F65">
-        <v>0.5142857142857142</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="G65">
-        <v>0.4381188118811881</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="H65">
-        <v>0.518</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5600000000000001</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="C66">
-        <v>0.494127068873465</v>
+        <v>0.4951482479784367</v>
       </c>
       <c r="D66">
-        <v>0.5614035087719298</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="E66">
-        <v>0.4937810945273632</v>
+        <v>0.4835566382460414</v>
       </c>
       <c r="F66">
-        <v>0.495575221238938</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="G66">
-        <v>0.44180225281602</v>
+        <v>0.498159509202454</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5447761194029851</v>
+        <v>0.6544117647058824</v>
       </c>
       <c r="C67">
-        <v>0.4968536969061353</v>
+        <v>0.4962785752259437</v>
       </c>
       <c r="D67">
-        <v>0.5588235294117647</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="E67">
-        <v>0.5006226650062267</v>
+        <v>0.4921212121212121</v>
       </c>
       <c r="F67">
-        <v>0.4854368932038835</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="G67">
-        <v>0.4427860696517413</v>
+        <v>0.4877450980392157</v>
       </c>
       <c r="H67">
-        <v>0.496</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5533333333333333</v>
+        <v>0.5906040268456376</v>
       </c>
       <c r="C68">
-        <v>0.4970261184380657</v>
+        <v>0.4941329856584094</v>
       </c>
       <c r="D68">
-        <v>0.5257731958762887</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="E68">
-        <v>0.5091130012150669</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="F68">
-        <v>0.5542168674698795</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="G68">
-        <v>0.4471445929526124</v>
+        <v>0.4879518072289157</v>
       </c>
       <c r="H68">
-        <v>0.484</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6180555555555556</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="C69">
-        <v>0.4952503209242619</v>
+        <v>0.4953584321815369</v>
       </c>
       <c r="D69">
-        <v>0.5058823529411764</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="E69">
-        <v>0.5079754601226993</v>
+        <v>0.4975786924939467</v>
       </c>
       <c r="F69">
         <v>0.5365853658536586</v>
       </c>
       <c r="G69">
-        <v>0.4487334137515078</v>
+        <v>0.4842615012106538</v>
       </c>
       <c r="H69">
-        <v>0.466</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6073619631901841</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C70">
-        <v>0.49102402022756</v>
+        <v>0.4951653944020356</v>
       </c>
       <c r="D70">
-        <v>0.5882352941176471</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E70">
-        <v>0.5121951219512195</v>
+        <v>0.5018450184501845</v>
       </c>
       <c r="F70">
-        <v>0.5638297872340425</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="G70">
-        <v>0.4466019417475728</v>
+        <v>0.4891041162227603</v>
       </c>
       <c r="H70">
-        <v>0.466</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5827814569536424</v>
+        <v>0.5766423357664233</v>
       </c>
       <c r="C71">
-        <v>0.4914786967418546</v>
+        <v>0.497622027534418</v>
       </c>
       <c r="D71">
-        <v>0.6346153846153846</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E71">
-        <v>0.5080545229244114</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="F71">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="G71">
-        <v>0.4558823529411765</v>
+        <v>0.4842233009708738</v>
       </c>
       <c r="H71">
-        <v>0.452</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5703703703703704</v>
+        <v>0.576</v>
       </c>
       <c r="C72">
-        <v>0.4929681717246484</v>
+        <v>0.4955401387512389</v>
       </c>
       <c r="D72">
-        <v>0.5412844036697247</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E72">
-        <v>0.506832298136646</v>
+        <v>0.5043804755944932</v>
       </c>
       <c r="F72">
-        <v>0.5268817204301075</v>
+        <v>0.4329896907216495</v>
       </c>
       <c r="G72">
-        <v>0.4622057001239158</v>
+        <v>0.478908188585608</v>
       </c>
       <c r="H72">
-        <v>0.444</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5793103448275863</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="C73">
-        <v>0.4952681388012618</v>
+        <v>0.4954889051450866</v>
       </c>
       <c r="D73">
-        <v>0.5315315315315315</v>
+        <v>0.5603448275862069</v>
       </c>
       <c r="E73">
-        <v>0.5143570536828964</v>
+        <v>0.5087939698492462</v>
       </c>
       <c r="F73">
-        <v>0.5728155339805825</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="G73">
-        <v>0.4589963280293758</v>
+        <v>0.4839108910891089</v>
       </c>
       <c r="H73">
-        <v>0.446</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6014492753623188</v>
+        <v>0.5886524822695035</v>
       </c>
       <c r="C74">
-        <v>0.4953248621433709</v>
+        <v>0.4939613526570048</v>
       </c>
       <c r="D74">
-        <v>0.4285714285714285</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="E74">
-        <v>0.506815365551425</v>
+        <v>0.5176767676767676</v>
       </c>
       <c r="F74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G74">
-        <v>0.4601226993865031</v>
+        <v>0.4858199753390876</v>
       </c>
       <c r="H74">
-        <v>0.44</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5789473684210527</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="C75">
-        <v>0.4964488636363636</v>
+        <v>0.4922341696535245</v>
       </c>
       <c r="D75">
-        <v>0.4489795918367347</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="E75">
-        <v>0.508641975308642</v>
+        <v>0.5230961298377028</v>
       </c>
       <c r="F75">
-        <v>0.6111111111111112</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="G75">
-        <v>0.4651162790697674</v>
+        <v>0.4717444717444718</v>
       </c>
       <c r="H75">
-        <v>0.432</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C76">
-        <v>0.497787095271372</v>
+        <v>0.4920934623554402</v>
       </c>
       <c r="D76">
-        <v>0.4433962264150944</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="E76">
-        <v>0.4993880048959609</v>
+        <v>0.525</v>
       </c>
       <c r="F76">
-        <v>0.6170212765957447</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="G76">
-        <v>0.4692400482509047</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="H76">
-        <v>0.444</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.635593220338983</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C77">
-        <v>0.4978135788262371</v>
+        <v>0.4914977870952714</v>
       </c>
       <c r="D77">
-        <v>0.4767441860465116</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="E77">
-        <v>0.4864532019704433</v>
+        <v>0.5233291298865069</v>
       </c>
       <c r="F77">
-        <v>0.6373626373626373</v>
+        <v>0.5368421052631579</v>
       </c>
       <c r="G77">
-        <v>0.473365617433414</v>
+        <v>0.4659231722428748</v>
       </c>
       <c r="H77">
-        <v>0.434</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5726495726495726</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="C78">
-        <v>0.4975022706630336</v>
+        <v>0.4928801102434543</v>
       </c>
       <c r="D78">
-        <v>0.4395604395604396</v>
+        <v>0.5585585585585585</v>
       </c>
       <c r="E78">
-        <v>0.4724602203182375</v>
+        <v>0.5307125307125307</v>
       </c>
       <c r="F78">
-        <v>0.6105263157894737</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="G78">
-        <v>0.4747847478474785</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="H78">
-        <v>0.446</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.628099173553719</v>
+        <v>0.5323741007194245</v>
       </c>
       <c r="C79">
-        <v>0.4991035410129986</v>
+        <v>0.4927470534904805</v>
       </c>
       <c r="D79">
-        <v>0.5089285714285714</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E79">
-        <v>0.4760736196319019</v>
+        <v>0.5345679012345679</v>
       </c>
       <c r="F79">
-        <v>0.6116504854368932</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="G79">
-        <v>0.4833948339483395</v>
+        <v>0.4774114774114774</v>
       </c>
       <c r="H79">
-        <v>0.448</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6076923076923076</v>
+        <v>0.5954198473282443</v>
       </c>
       <c r="C80">
-        <v>0.4976702906589749</v>
+        <v>0.4938326979143305</v>
       </c>
       <c r="D80">
-        <v>0.5607476635514018</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="E80">
-        <v>0.4742785445420326</v>
+        <v>0.5296296296296297</v>
       </c>
       <c r="F80">
-        <v>0.5480769230769231</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G80">
-        <v>0.4937965260545906</v>
+        <v>0.4786845310596833</v>
       </c>
       <c r="H80">
-        <v>0.442</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.572463768115942</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C81">
-        <v>0.4981322786200835</v>
+        <v>0.492263483642794</v>
       </c>
       <c r="D81">
-        <v>0.5431034482758621</v>
+        <v>0.6138613861386139</v>
       </c>
       <c r="E81">
-        <v>0.4711779448621554</v>
+        <v>0.5241635687732342</v>
       </c>
       <c r="F81">
-        <v>0.4678899082568808</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="G81">
-        <v>0.4993757802746567</v>
+        <v>0.4812575574365175</v>
       </c>
       <c r="H81">
-        <v>0.438</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.576</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C82">
-        <v>0.5008691873098653</v>
+        <v>0.4950711938663746</v>
       </c>
       <c r="D82">
-        <v>0.5752212389380531</v>
+        <v>0.6116504854368932</v>
       </c>
       <c r="E82">
-        <v>0.4761904761904762</v>
+        <v>0.5225</v>
       </c>
       <c r="F82">
-        <v>0.4770642201834863</v>
+        <v>0.5643564356435643</v>
       </c>
       <c r="G82">
-        <v>0.5006211180124224</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="H82">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5846153846153846</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="C83">
-        <v>0.500535217298223</v>
+        <v>0.4945934256055363</v>
       </c>
       <c r="D83">
-        <v>0.4766355140186916</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="E83">
-        <v>0.4684796044499382</v>
+        <v>0.5180124223602485</v>
       </c>
       <c r="F83">
-        <v>0.4827586206896552</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="G83">
-        <v>0.4944785276073619</v>
+        <v>0.4919653893695921</v>
       </c>
       <c r="H83">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5714285714285714</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="C84">
-        <v>0.5003175947491002</v>
+        <v>0.4951912801880744</v>
       </c>
       <c r="D84">
-        <v>0.5111111111111111</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="E84">
-        <v>0.4722564734895191</v>
+        <v>0.520935960591133</v>
       </c>
       <c r="F84">
-        <v>0.5595238095238095</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="G84">
-        <v>0.4880095923261391</v>
+        <v>0.4944512946979038</v>
       </c>
       <c r="H84">
-        <v>0.464</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5864661654135338</v>
+        <v>0.6137931034482759</v>
       </c>
       <c r="C85">
-        <v>0.5001045369015262</v>
+        <v>0.4941798941798942</v>
       </c>
       <c r="D85">
-        <v>0.5161290322580645</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E85">
-        <v>0.4686746987951807</v>
+        <v>0.5272952853598015</v>
       </c>
       <c r="F85">
-        <v>0.5301204819277109</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G85">
-        <v>0.4802867383512545</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="H85">
-        <v>0.47</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5793650793650794</v>
+        <v>0.6</v>
       </c>
       <c r="C86">
-        <v>0.4985519238725693</v>
+        <v>0.4939254294093004</v>
       </c>
       <c r="D86">
-        <v>0.5148514851485149</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E86">
-        <v>0.4710144927536232</v>
+        <v>0.5157766990291263</v>
       </c>
       <c r="F86">
-        <v>0.6153846153846154</v>
+        <v>0.5346534653465347</v>
       </c>
       <c r="G86">
-        <v>0.4845605700712589</v>
+        <v>0.4950372208436725</v>
       </c>
       <c r="H86">
-        <v>0.474</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6016260162601627</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C87">
-        <v>0.4993865030674847</v>
+        <v>0.4953309815314381</v>
       </c>
       <c r="D87">
-        <v>0.5445544554455446</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E87">
-        <v>0.480840543881335</v>
+        <v>0.5116564417177915</v>
       </c>
       <c r="F87">
-        <v>0.5609756097560976</v>
+        <v>0.5643564356435643</v>
       </c>
       <c r="G87">
-        <v>0.4729891956782713</v>
+        <v>0.5055900621118012</v>
       </c>
       <c r="H87">
-        <v>0.486</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5895522388059702</v>
+        <v>0.6439393939393939</v>
       </c>
       <c r="C88">
-        <v>0.4982797004654928</v>
+        <v>0.495818886396084</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="E88">
-        <v>0.4875</v>
+        <v>0.5151148730350665</v>
       </c>
       <c r="F88">
-        <v>0.4742268041237113</v>
+        <v>0.6355140186915887</v>
       </c>
       <c r="G88">
-        <v>0.4792682926829268</v>
+        <v>0.5061274509803921</v>
       </c>
       <c r="H88">
-        <v>0.488</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6030534351145038</v>
+        <v>0.6</v>
       </c>
       <c r="C89">
-        <v>0.4987951807228916</v>
+        <v>0.4950535029275187</v>
       </c>
       <c r="D89">
-        <v>0.5267857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E89">
-        <v>0.4943253467843632</v>
+        <v>0.5115151515151515</v>
       </c>
       <c r="F89">
-        <v>0.4693877551020408</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="G89">
-        <v>0.4801980198019802</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="H89">
-        <v>0.492</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6271186440677966</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C90">
-        <v>0.4970226280269948</v>
+        <v>0.4954091816367265</v>
       </c>
       <c r="D90">
-        <v>0.509090909090909</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="E90">
-        <v>0.4918648310387985</v>
+        <v>0.5006002400960384</v>
       </c>
       <c r="F90">
-        <v>0.4408602150537634</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="G90">
-        <v>0.4809815950920245</v>
+        <v>0.5012254901960784</v>
       </c>
       <c r="H90">
-        <v>0.482</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6176470588235294</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C91">
-        <v>0.4963789391270307</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="D91">
-        <v>0.6021505376344086</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E91">
-        <v>0.4975247524752475</v>
+        <v>0.4847746650426309</v>
       </c>
       <c r="F91">
-        <v>0.5054945054945055</v>
+        <v>0.5742574257425742</v>
       </c>
       <c r="G91">
-        <v>0.4764207980652962</v>
+        <v>0.5081148564294632</v>
       </c>
       <c r="H91">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6027397260273972</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C92">
-        <v>0.4961074347995329</v>
+        <v>0.4960753532182103</v>
       </c>
       <c r="D92">
-        <v>0.6162790697674418</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E92">
-        <v>0.4963235294117647</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="F92">
-        <v>0.5060240963855421</v>
+        <v>0.6542056074766355</v>
       </c>
       <c r="G92">
-        <v>0.4706601466992665</v>
+        <v>0.5049875311720698</v>
       </c>
       <c r="H92">
-        <v>0.496</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6029411764705882</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C93">
-        <v>0.4962406015037594</v>
+        <v>0.4945673263484672</v>
       </c>
       <c r="D93">
-        <v>0.57</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="E93">
-        <v>0.4963503649635037</v>
+        <v>0.4963054187192118</v>
       </c>
       <c r="F93">
-        <v>0.495049504950495</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="G93">
-        <v>0.4643288996372431</v>
+        <v>0.5049382716049383</v>
       </c>
       <c r="H93">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6183206106870229</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C94">
-        <v>0.496186117467582</v>
+        <v>0.494334549644709</v>
       </c>
       <c r="D94">
-        <v>0.594059405940594</v>
+        <v>0.55</v>
       </c>
       <c r="E94">
-        <v>0.5043263288009888</v>
+        <v>0.4882860665844636</v>
       </c>
       <c r="F94">
-        <v>0.5416666666666666</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="G94">
-        <v>0.4616336633663367</v>
+        <v>0.5104294478527608</v>
       </c>
       <c r="H94">
-        <v>0.52</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5693430656934306</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C95">
-        <v>0.4955685461059777</v>
+        <v>0.4942092272640972</v>
       </c>
       <c r="D95">
-        <v>0.5384615384615384</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="E95">
-        <v>0.5006226650062267</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="F95">
-        <v>0.5094339622641509</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="G95">
-        <v>0.4641089108910891</v>
+        <v>0.5165238678090576</v>
       </c>
       <c r="H95">
-        <v>0.498</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6030534351145038</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C96">
-        <v>0.4974742750233864</v>
+        <v>0.4947663551401869</v>
       </c>
       <c r="D96">
-        <v>0.5377358490566038</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E96">
-        <v>0.50187265917603</v>
+        <v>0.4975728155339806</v>
       </c>
       <c r="F96">
-        <v>0.5360824742268041</v>
+        <v>0.59375</v>
       </c>
       <c r="G96">
-        <v>0.46375</v>
+        <v>0.5109489051094891</v>
       </c>
       <c r="H96">
-        <v>0.494</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.608</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="C97">
-        <v>0.4969438784960178</v>
+        <v>0.4951816160118606</v>
       </c>
       <c r="D97">
-        <v>0.5145631067961165</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="E97">
-        <v>0.5037783375314862</v>
+        <v>0.4914425427872861</v>
       </c>
       <c r="F97">
-        <v>0.5918367346938775</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="G97">
-        <v>0.4670807453416149</v>
+        <v>0.5102781136638452</v>
       </c>
       <c r="H97">
-        <v>0.478</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,22 +2922,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5769230769230769</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C98">
-        <v>0.4956983342485813</v>
+        <v>0.4944893460690669</v>
       </c>
       <c r="D98">
-        <v>0.5339805825242718</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="E98">
-        <v>0.5030978934324659</v>
+        <v>0.4866180048661801</v>
       </c>
       <c r="F98">
-        <v>0.5619047619047619</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G98">
-        <v>0.4656019656019656</v>
+        <v>0.5171149144254279</v>
       </c>
       <c r="H98">
         <v>0.488</v>
@@ -2948,22 +2948,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5625</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="C99">
-        <v>0.4965504720406681</v>
+        <v>0.4955332725615315</v>
       </c>
       <c r="D99">
-        <v>0.6</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="E99">
-        <v>0.4962871287128713</v>
+        <v>0.491183879093199</v>
       </c>
       <c r="F99">
-        <v>0.5533980582524272</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="G99">
-        <v>0.4696406443618339</v>
+        <v>0.523153942428035</v>
       </c>
       <c r="H99">
         <v>0.484</v>
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5514705882352942</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C100">
-        <v>0.4973934927197555</v>
+        <v>0.4953153153153153</v>
       </c>
       <c r="D100">
-        <v>0.584070796460177</v>
+        <v>0.5619834710743802</v>
       </c>
       <c r="E100">
-        <v>0.4893882646691635</v>
+        <v>0.4880803011292346</v>
       </c>
       <c r="F100">
-        <v>0.6190476190476191</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="G100">
-        <v>0.4682440846824408</v>
+        <v>0.525062656641604</v>
       </c>
       <c r="H100">
-        <v>0.49</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5942028985507246</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C101">
-        <v>0.4973290598290598</v>
+        <v>0.4957142857142857</v>
       </c>
       <c r="D101">
-        <v>0.5925925925925926</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="E101">
-        <v>0.4868913857677903</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="F101">
-        <v>0.638095238095238</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G101">
-        <v>0.4654320987654321</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="H101">
-        <v>0.48</v>
+        <v>0.466</v>
       </c>
     </row>
   </sheetData>
